--- a/Mifos Automation Excels/Loan Product/1153-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-ACC-PERIODIC-DISB-FEE-FLAT-ONTIME-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/1153-RBI-EI-DB-DL-REC-NON-RNI-CTPD-SAR-MD-TR-1-ACC-PERIODIC-DISB-FEE-FLAT-ONTIME-Loanproduct.xlsx
@@ -182,9 +182,6 @@
     <t>abc</t>
   </si>
   <si>
-    <t>RBI (India)</t>
-  </si>
-  <si>
     <t>charges</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>accrualperiodic</t>
+  </si>
+  <si>
+    <t>Overdue/Due Fee/Int,Principal</t>
   </si>
 </sst>
 </file>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -646,10 +646,10 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -737,7 +737,7 @@
         <v>24</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -745,7 +745,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -822,7 +822,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B28" s="8">
         <v>10000</v>
@@ -830,15 +830,15 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>17</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>17</v>
@@ -945,10 +945,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
